--- a/error.xlsx
+++ b/error.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,62 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>000526 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>000543 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>000545 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>000552 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>000553 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>000589 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>000608 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>000631 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/error.xlsx
+++ b/error.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,55 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>000807 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>000809 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>000821 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>000839 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>000892 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>000925 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>000929 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/error.xlsx
+++ b/error.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,126 +424,2184 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>000014 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>002514 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000151 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>002524 Error：Response ended prematurely</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000509 Error：Response ended prematurely</t>
+          <t>002536 Error：Response ended prematurely</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000526 Error：Response ended prematurely</t>
+          <t>002537 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>000543 Error：Response ended prematurely</t>
+          <t>002563 Error：Response ended prematurely</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>000545 Error：Response ended prematurely</t>
+          <t>002570 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>000552 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>002628 Error：Response ended prematurely</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000553 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>002635 Error：Response ended prematurely</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>000589 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>002661 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>000608 Error：Response ended prematurely</t>
+          <t>002674 Error：Response ended prematurely</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>000631 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>002677 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>000807 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>002852 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>000809 Error：Response ended prematurely</t>
+          <t>002877 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>000821 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>003019 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>000839 Error：Response ended prematurely</t>
+          <t>003031 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>000892 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>003038 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>000925 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>300009 Error：Response ended prematurely</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>000929 Error：Expecting value: line 1 column 1 (char 0)</t>
+          <t>300015 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>300016 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>300026 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>300055 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>300082 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>300224 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>300233 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>300245 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>300283 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>300334 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>300409 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>300441 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>300476 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>300498 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>300519 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>300570 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>300580 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>300588 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>300631 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>300654 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>300708 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>300720 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>300752 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>300762 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>300779 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>300789 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>300888 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>300948 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>300965 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>301045 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>301067 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>301081 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>301111 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>301252 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>301317 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>301555 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>301608 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>600037 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>600054 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>605108 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>605179 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>605186 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>605368 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>688005 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>688112 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>688131 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>688153 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>688179 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>688218 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>688291 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>688319 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>688345 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>688633 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>688671 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>688728 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>688767 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>834058 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>836149 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>836504 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>836720 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>872895 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>920019 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>920108 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>920167 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>200055 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>900903 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>000005 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>000502 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>000522 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>000616 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>000979 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>002013 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>002118 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>300262 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>300325 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>300336 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>300356 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>300362 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>300367 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>300372 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>300392 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>300431 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>300495 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>300526 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>300630 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>300742 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>300799 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>430489 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>600001 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>600002 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>600003 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>600005 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>600065 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>600068 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>600069 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>600070 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>600074 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>600077 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>600083 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>600086 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>600087 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>600090 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>600091 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>600092 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>600093 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>600102 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>600112 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>600122 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>600139 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>600145 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>600146 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>600175 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>600181 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>600190 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>600205 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>600209 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>600213 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>600220 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>600225 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>600240 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>600242 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>600247 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>600253 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>600260 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>600263 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>600270 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>600275 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>600277 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>600286 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>600290 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>600291 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>600296 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>600297 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>600306 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>600311 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>600317 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>600321 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>600357 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>600385 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>600387 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>600393 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>600401 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>600432 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>600462 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>600466 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>600472 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>600485 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>600532 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>600553 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>600555 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>600565 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>600591 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>600607 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>600614 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>600625 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>600627 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>600631 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>600632 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>600634 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>600646 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>600647 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>600652 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>600656 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>600659 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>600669 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>600670 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>600672 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>600677 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>600680 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>600687 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>600695 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>600700 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>600701 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>600705 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>600709 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>600723 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>600747 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>600752 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>600762 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>600766 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>600767 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>600772 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>600781 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>600786 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>600788 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>600799 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>600804 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>600806 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>600811 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>600813 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>600823 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>600832 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>600836 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>600837 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>600840 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>688551 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>837344 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>837821 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>873169 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>920016 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>200992 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>689009 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>000515 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>000562 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>000732 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>000861 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>002220 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>002325 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>002447 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>002504 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>600122 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>600242 Error：Response ended prematurely</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>600306 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>600472 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>600709 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>600723 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>600747 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>600752 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>600762 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>600766 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>600767 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>600772 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>600781 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>600786 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>600788 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>600799 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>600804 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>600806 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>600811 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>600813 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>600823 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>600832 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>600836 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>600837 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>600840 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>600709 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>600723 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>600747 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>600752 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>600762 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>600766 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>600767 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>600772 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>600781 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>600786 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>600788 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>600799 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>600804 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>600806 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>600811 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>600813 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>600823 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>600832 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>600836 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>600837 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>600840 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>600842 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>600849 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>600852 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>600856 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>600870 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>600878 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>600890 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>600891 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>600896 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>600898 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>600899 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>600978 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>600991 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>601028 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>601258 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>601268 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>601299 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>601313 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>601558 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>603003 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>603133 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>603157 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>603555 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>603603 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>603963 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>603996 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>688086 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>688555 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>830799 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>831445 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>832317 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>833819 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>833874 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>833994 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>834682 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>839167 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>600786 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>600832 Error：Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>688555 Error：Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
     </row>
